--- a/Outputs/Final_Enriched_Log_With_Signal_Score.xlsx
+++ b/Outputs/Final_Enriched_Log_With_Signal_Score.xlsx
@@ -94,7 +94,7 @@
     <t>PG_value</t>
   </si>
   <si>
-    <t>Is Attractive to Buy?</t>
+    <t>Market</t>
   </si>
   <si>
     <t>Signal Alignment Score</t>
